--- a/2S-Projetos/SP-Medical-Group/Banco/Modelagens/sp-medroup_fisico.xlsx
+++ b/2S-Projetos/SP-Medical-Group/Banco/Modelagens/sp-medroup_fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Senai\2021-2S-2M\2S-Projetos\SP-Medical-Group\Modelagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46849723804\Desktop\2021-2S-2M\2S-Projetos\SP-Medical-Group\Banco\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CD891A-EBA8-4E1D-B72D-B29CB0BD06F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9122C8-75E4-45CC-A260-FE224CAD2416}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26490" windowHeight="15390" xr2:uid="{8F0A808F-5505-4956-9FB0-0797BDCA5690}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26496" windowHeight="15396" xr2:uid="{8F0A808F-5505-4956-9FB0-0797BDCA5690}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -773,142 +773,142 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1241,59 +1241,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A31AD32-3540-422E-B9AF-AF714F01B892}">
   <dimension ref="B1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N30:N31"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22:P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="29.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="12.5546875" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" customWidth="1"/>
-    <col min="19" max="19" width="1.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" customWidth="1"/>
+    <col min="18" max="18" width="20.88671875" customWidth="1"/>
+    <col min="19" max="19" width="1.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+    <row r="1" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="C2" s="29"/>
+      <c r="F2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="56"/>
-    </row>
-    <row r="3" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
         <v>123</v>
       </c>
@@ -1303,14 +1303,14 @@
       <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="57" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="58"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="7" t="s">
         <v>117</v>
       </c>
@@ -1326,23 +1326,23 @@
       <c r="Q3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="52" t="s">
+      <c r="S3" s="41"/>
+      <c r="T3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="U3" s="53"/>
-      <c r="V3" s="52" t="s">
+      <c r="U3" s="41"/>
+      <c r="V3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="53"/>
+      <c r="W3" s="41"/>
       <c r="X3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1352,14 +1352,14 @@
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="35">
         <v>1</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="6">
         <v>123</v>
       </c>
@@ -1375,23 +1375,23 @@
       <c r="Q4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="50">
+      <c r="R4" s="44">
         <v>30602</v>
       </c>
-      <c r="S4" s="51"/>
-      <c r="T4" s="48" t="s">
+      <c r="S4" s="45"/>
+      <c r="T4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="49"/>
-      <c r="V4" s="48">
+      <c r="U4" s="43"/>
+      <c r="V4" s="42">
         <v>432124576</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="43"/>
       <c r="X4" s="9">
         <v>94839859000</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1401,14 +1401,14 @@
       <c r="F5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="35">
         <v>1</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="6">
         <v>132</v>
       </c>
@@ -1424,23 +1424,23 @@
       <c r="Q5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="50">
+      <c r="R5" s="44">
         <v>37095</v>
       </c>
-      <c r="S5" s="51"/>
-      <c r="T5" s="48" t="s">
+      <c r="S5" s="45"/>
+      <c r="T5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="49"/>
-      <c r="V5" s="48" t="s">
+      <c r="U5" s="43"/>
+      <c r="V5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="49"/>
+      <c r="W5" s="43"/>
       <c r="X5" s="9">
         <v>73556944057</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1450,14 +1450,14 @@
       <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="35">
         <v>2</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="6">
         <v>167</v>
       </c>
@@ -1473,34 +1473,34 @@
       <c r="Q6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="50">
+      <c r="R6" s="44">
         <v>28773</v>
       </c>
-      <c r="S6" s="51"/>
-      <c r="T6" s="48" t="s">
+      <c r="S6" s="45"/>
+      <c r="T6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="49"/>
-      <c r="V6" s="48" t="s">
+      <c r="U6" s="43"/>
+      <c r="V6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="49"/>
+      <c r="W6" s="43"/>
       <c r="X6" s="9">
         <v>16839338002</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F7" s="6">
         <v>4</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="35">
         <v>2</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="5"/>
       <c r="N7" s="9">
         <v>4</v>
@@ -1514,34 +1514,34 @@
       <c r="Q7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="50">
+      <c r="R7" s="44">
         <v>31333</v>
       </c>
-      <c r="S7" s="51"/>
-      <c r="T7" s="48" t="s">
+      <c r="S7" s="45"/>
+      <c r="T7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="49"/>
-      <c r="V7" s="48" t="s">
+      <c r="U7" s="43"/>
+      <c r="V7" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="49"/>
+      <c r="W7" s="43"/>
       <c r="X7" s="9">
         <v>14332654765</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F8" s="6">
         <v>5</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="35">
         <v>2</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="36"/>
+      <c r="I8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="5"/>
       <c r="N8" s="9">
         <v>5</v>
@@ -1555,34 +1555,34 @@
       <c r="Q8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="50">
+      <c r="R8" s="44">
         <v>27633</v>
       </c>
-      <c r="S8" s="51"/>
-      <c r="T8" s="48" t="s">
+      <c r="S8" s="45"/>
+      <c r="T8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="49"/>
-      <c r="V8" s="48" t="s">
+      <c r="U8" s="43"/>
+      <c r="V8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="W8" s="49"/>
+      <c r="W8" s="43"/>
       <c r="X8" s="9">
         <v>91305348010</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F9" s="6">
         <v>6</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="35">
         <v>3</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="36"/>
+      <c r="I9" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="5"/>
       <c r="N9" s="9">
         <v>6</v>
@@ -1596,34 +1596,34 @@
       <c r="Q9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="50">
+      <c r="R9" s="44">
         <v>26379</v>
       </c>
-      <c r="S9" s="51"/>
-      <c r="T9" s="48" t="s">
+      <c r="S9" s="45"/>
+      <c r="T9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U9" s="49"/>
-      <c r="V9" s="48" t="s">
+      <c r="U9" s="43"/>
+      <c r="V9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="49"/>
+      <c r="W9" s="43"/>
       <c r="X9" s="9">
         <v>79799299004</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F10" s="6">
         <v>7</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="35">
         <v>3</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="5"/>
       <c r="N10" s="9">
         <v>7</v>
@@ -1637,245 +1637,245 @@
       <c r="Q10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="50">
+      <c r="R10" s="44">
         <v>43164</v>
       </c>
-      <c r="S10" s="51"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="48" t="s">
+      <c r="S10" s="45"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="W10" s="49"/>
+      <c r="W10" s="43"/>
       <c r="X10" s="9">
         <v>13771913039</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F11" s="6">
         <v>8</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="35">
         <v>3</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F12" s="6">
         <v>9</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="35">
         <v>3</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="36"/>
+      <c r="I12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F13" s="6">
         <v>10</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="35">
         <v>3</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23" t="s">
+      <c r="H13" s="36"/>
+      <c r="I13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="5"/>
-      <c r="N13" s="47" t="s">
+      <c r="N13" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-    </row>
-    <row r="14" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+    </row>
+    <row r="14" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="6">
         <v>11</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23" t="s">
+      <c r="H14" s="36"/>
+      <c r="I14" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="5"/>
       <c r="N14" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="P14" s="28"/>
+      <c r="P14" s="48"/>
       <c r="Q14" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="R14" s="27" t="s">
+      <c r="R14" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="S14" s="28"/>
-      <c r="T14" s="27" t="s">
+      <c r="S14" s="48"/>
+      <c r="T14" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="U14" s="28"/>
-      <c r="V14" s="27" t="s">
+      <c r="U14" s="48"/>
+      <c r="V14" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="W14" s="28"/>
+      <c r="W14" s="48"/>
       <c r="X14" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F15" s="6">
         <v>12</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="35">
         <v>3</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23" t="s">
+      <c r="H15" s="36"/>
+      <c r="I15" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="5"/>
       <c r="N15" s="12">
         <v>1</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="O15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="46"/>
+      <c r="P15" s="50"/>
       <c r="Q15" s="12">
         <v>532</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="S15" s="46"/>
-      <c r="T15" s="45" t="s">
+      <c r="S15" s="50"/>
+      <c r="T15" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="U15" s="46"/>
-      <c r="V15" s="45" t="s">
+      <c r="U15" s="50"/>
+      <c r="V15" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="W15" s="46"/>
+      <c r="W15" s="50"/>
       <c r="X15" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N16" s="12">
         <v>2</v>
       </c>
-      <c r="O16" s="45" t="s">
+      <c r="O16" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="P16" s="46"/>
+      <c r="P16" s="50"/>
       <c r="Q16" s="12">
         <v>240</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="S16" s="46"/>
-      <c r="T16" s="45" t="s">
+      <c r="S16" s="50"/>
+      <c r="T16" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="U16" s="46"/>
-      <c r="V16" s="45" t="s">
+      <c r="U16" s="50"/>
+      <c r="V16" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="W16" s="46"/>
+      <c r="W16" s="50"/>
       <c r="X16" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N17" s="12">
         <v>3</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="O17" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="46"/>
+      <c r="P17" s="50"/>
       <c r="Q17" s="12">
         <v>1578</v>
       </c>
-      <c r="R17" s="45" t="s">
+      <c r="R17" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="S17" s="46"/>
-      <c r="T17" s="45" t="s">
+      <c r="S17" s="50"/>
+      <c r="T17" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="U17" s="46"/>
-      <c r="V17" s="45" t="s">
+      <c r="U17" s="50"/>
+      <c r="V17" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="W17" s="46"/>
+      <c r="W17" s="50"/>
       <c r="X17" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
+    <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="F18" s="34" t="s">
+      <c r="C18" s="67"/>
+      <c r="F18" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
       <c r="N18" s="12">
         <v>4</v>
       </c>
-      <c r="O18" s="45" t="s">
+      <c r="O18" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="46"/>
+      <c r="P18" s="50"/>
       <c r="Q18" s="12">
         <v>2927</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="R18" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="S18" s="46"/>
-      <c r="T18" s="45" t="s">
+      <c r="S18" s="50"/>
+      <c r="T18" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="U18" s="46"/>
-      <c r="V18" s="45" t="s">
+      <c r="U18" s="50"/>
+      <c r="V18" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="W18" s="46"/>
+      <c r="W18" s="50"/>
       <c r="X18" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>118</v>
       </c>
@@ -1885,38 +1885,38 @@
       <c r="F19" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="66"/>
       <c r="N19" s="12">
         <v>5</v>
       </c>
-      <c r="O19" s="45" t="s">
+      <c r="O19" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="P19" s="46"/>
+      <c r="P19" s="50"/>
       <c r="Q19" s="12">
         <v>120</v>
       </c>
-      <c r="R19" s="45" t="s">
+      <c r="R19" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="S19" s="46"/>
-      <c r="T19" s="45" t="s">
+      <c r="S19" s="50"/>
+      <c r="T19" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="U19" s="46"/>
-      <c r="V19" s="45" t="s">
+      <c r="U19" s="50"/>
+      <c r="V19" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="W19" s="46"/>
+      <c r="W19" s="50"/>
       <c r="X19" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8">
         <v>1</v>
       </c>
@@ -1926,38 +1926,38 @@
       <c r="F20" s="14">
         <v>1</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
       <c r="N20" s="12">
         <v>6</v>
       </c>
-      <c r="O20" s="45" t="s">
+      <c r="O20" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="P20" s="46"/>
+      <c r="P20" s="50"/>
       <c r="Q20" s="12">
         <v>66</v>
       </c>
-      <c r="R20" s="45" t="s">
+      <c r="R20" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="S20" s="46"/>
-      <c r="T20" s="45" t="s">
+      <c r="S20" s="50"/>
+      <c r="T20" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="U20" s="46"/>
-      <c r="V20" s="45" t="s">
+      <c r="U20" s="50"/>
+      <c r="V20" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="W20" s="46"/>
+      <c r="W20" s="50"/>
       <c r="X20" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8">
         <v>2</v>
       </c>
@@ -1967,38 +1967,38 @@
       <c r="F21" s="14">
         <v>2</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
       <c r="N21" s="12">
         <v>7</v>
       </c>
-      <c r="O21" s="45" t="s">
+      <c r="O21" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="46"/>
+      <c r="P21" s="50"/>
       <c r="Q21" s="12">
         <v>945</v>
       </c>
-      <c r="R21" s="45" t="s">
+      <c r="R21" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="S21" s="46"/>
-      <c r="T21" s="45" t="s">
+      <c r="S21" s="50"/>
+      <c r="T21" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="U21" s="46"/>
-      <c r="V21" s="45" t="s">
+      <c r="U21" s="50"/>
+      <c r="V21" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="W21" s="46"/>
+      <c r="W21" s="50"/>
       <c r="X21" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8">
         <v>3</v>
       </c>
@@ -2008,89 +2008,89 @@
       <c r="F22" s="14">
         <v>3</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
       <c r="N22" s="12">
         <v>8</v>
       </c>
-      <c r="O22" s="45" t="s">
+      <c r="O22" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="P22" s="46"/>
+      <c r="P22" s="50"/>
       <c r="Q22" s="12">
         <v>232</v>
       </c>
-      <c r="R22" s="45" t="s">
+      <c r="R22" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="S22" s="46"/>
-      <c r="T22" s="45" t="s">
+      <c r="S22" s="50"/>
+      <c r="T22" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="U22" s="46"/>
-      <c r="V22" s="45" t="s">
+      <c r="U22" s="50"/>
+      <c r="V22" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="W22" s="46"/>
+      <c r="W22" s="50"/>
       <c r="X22" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F23" s="14">
         <v>4</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="24" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+    </row>
+    <row r="24" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F24" s="14">
         <v>5</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-    </row>
-    <row r="25" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F25" s="14">
         <v>6</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="O25" s="67" t="s">
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="O25" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-    </row>
-    <row r="26" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+    </row>
+    <row r="26" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F26" s="14">
         <v>7</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
       <c r="O26" s="18" t="s">
         <v>122</v>
       </c>
@@ -2109,101 +2109,101 @@
       <c r="T26" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="U26" s="64" t="s">
+      <c r="U26" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64" t="s">
+      <c r="V26" s="24"/>
+      <c r="W26" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-    </row>
-    <row r="27" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+    </row>
+    <row r="27" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="14">
         <v>8</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
       <c r="O27" s="19">
         <v>1</v>
       </c>
       <c r="P27" s="19">
         <v>1</v>
       </c>
-      <c r="Q27" s="66">
+      <c r="Q27" s="23">
         <v>0.29166666666666669</v>
       </c>
-      <c r="R27" s="66">
+      <c r="R27" s="23">
         <v>0.91666666666666663</v>
       </c>
-      <c r="S27" s="66">
+      <c r="S27" s="23">
         <v>0.91666666666666663</v>
       </c>
       <c r="T27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="U27" s="65" t="s">
+      <c r="U27" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65" t="s">
+      <c r="V27" s="25"/>
+      <c r="W27" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-    </row>
-    <row r="28" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+    </row>
+    <row r="28" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="14">
         <v>9</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-    </row>
-    <row r="29" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+    </row>
+    <row r="29" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="14">
         <v>10</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
-    </row>
-    <row r="30" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F30" s="14">
         <v>11</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="O30" s="26" t="s">
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="O30" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-    </row>
-    <row r="31" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+    </row>
+    <row r="31" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F31" s="14">
         <v>12</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
       <c r="O31" s="21" t="s">
         <v>119</v>
       </c>
@@ -2224,15 +2224,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F32" s="14">
         <v>13</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
       <c r="O32" s="20">
         <v>1</v>
       </c>
@@ -2253,15 +2253,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F33" s="14">
         <v>14</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
       <c r="O33" s="20">
         <v>2</v>
       </c>
@@ -2282,15 +2282,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F34" s="14">
         <v>15</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
       <c r="O34" s="20">
         <v>3</v>
       </c>
@@ -2311,46 +2311,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F35" s="14">
         <v>16</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+    </row>
+    <row r="36" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F36" s="14">
         <v>17</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="37" t="s">
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
+    </row>
+    <row r="37" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+    </row>
+    <row r="40" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F40" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="G40" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="40"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="15" t="s">
         <v>100</v>
       </c>
@@ -2361,14 +2361,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F41" s="16">
         <v>1</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="51">
         <v>7</v>
       </c>
-      <c r="H41" s="30"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="16">
         <v>3</v>
       </c>
@@ -2379,14 +2379,14 @@
         <v>43850.625</v>
       </c>
     </row>
-    <row r="42" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F42" s="16">
         <v>2</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="51">
         <v>2</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="16">
         <v>2</v>
       </c>
@@ -2398,14 +2398,14 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F43" s="16">
         <v>3</v>
       </c>
-      <c r="G43" s="29">
+      <c r="G43" s="51">
         <v>3</v>
       </c>
-      <c r="H43" s="30"/>
+      <c r="H43" s="52"/>
       <c r="I43" s="16">
         <v>2</v>
       </c>
@@ -2417,14 +2417,14 @@
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F44" s="16">
         <v>4</v>
       </c>
-      <c r="G44" s="29">
+      <c r="G44" s="51">
         <v>2</v>
       </c>
-      <c r="H44" s="30"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="16">
         <v>2</v>
       </c>
@@ -2436,14 +2436,14 @@
       </c>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F45" s="16">
         <v>5</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G45" s="51">
         <v>4</v>
       </c>
-      <c r="H45" s="30"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="16">
         <v>1</v>
       </c>
@@ -2458,14 +2458,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F46" s="16">
         <v>6</v>
       </c>
-      <c r="G46" s="29">
+      <c r="G46" s="51">
         <v>7</v>
       </c>
-      <c r="H46" s="30"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="16">
         <v>3</v>
       </c>
@@ -2477,14 +2477,14 @@
       </c>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F47" s="16">
         <v>7</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="51">
         <v>4</v>
       </c>
-      <c r="H47" s="30"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="16">
         <v>1</v>
       </c>
@@ -2499,41 +2499,143 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L48" s="1"/>
       <c r="N48" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:14" x14ac:dyDescent="0.3">
       <c r="N49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
+    <row r="51" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
       <c r="J51" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:14" x14ac:dyDescent="0.3">
       <c r="K53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:14" x14ac:dyDescent="0.3">
       <c r="M54" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:14" x14ac:dyDescent="0.3">
       <c r="M55" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="O30:U30"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
     <mergeCell ref="U26:V26"/>
     <mergeCell ref="U27:V27"/>
     <mergeCell ref="O25:Y25"/>
@@ -2558,108 +2660,6 @@
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="O30:U30"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
